--- a/local/public/excel_files/promotion_cus.xlsx
+++ b/local/public/excel_files/promotion_cus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>promotion_code</t>
   </si>
@@ -26,76 +26,49 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>B1QQJTYL1</t>
-  </si>
-  <si>
-    <t>2021-01-04 01:10:32</t>
-  </si>
-  <si>
-    <t>B1QQJTYL2</t>
-  </si>
-  <si>
-    <t>TPBRUFVJYW</t>
-  </si>
-  <si>
-    <t>2021-01-04 12:57:25</t>
-  </si>
-  <si>
-    <t>P2S3YLTCZPFO</t>
-  </si>
-  <si>
-    <t>2021-01-04 13:32:43</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL3</t>
-  </si>
-  <si>
-    <t>2021-01-04 15:06:18</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL4</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL5</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL6</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL7</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL8</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL9</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL10</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL11</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL12</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL13</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL14</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL15</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL16</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL17</t>
-  </si>
-  <si>
-    <t>X10-B1QQJTYL18</t>
+    <t>6YR8ST</t>
+  </si>
+  <si>
+    <t>2021-02-10 10:10:49</t>
+  </si>
+  <si>
+    <t>6UPUJM</t>
+  </si>
+  <si>
+    <t>4VKZK6</t>
+  </si>
+  <si>
+    <t>R4JAUC</t>
+  </si>
+  <si>
+    <t>HWMHYQ</t>
+  </si>
+  <si>
+    <t>R32KKY</t>
+  </si>
+  <si>
+    <t>Q4U6Z2</t>
+  </si>
+  <si>
+    <t>MH5RK5</t>
+  </si>
+  <si>
+    <t>TXQ82C</t>
+  </si>
+  <si>
+    <t>3U5D4H</t>
+  </si>
+  <si>
+    <t>XNUZC</t>
+  </si>
+  <si>
+    <t>2021-03-08 15:48:28</t>
+  </si>
+  <si>
+    <t>VUKRD</t>
+  </si>
+  <si>
+    <t>SQSM6</t>
   </si>
 </sst>
 </file>
@@ -434,7 +407,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -469,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -480,197 +453,120 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
